--- a/sources/fact_extraction_viewpoint/economy-table06.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table06.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table_1b!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -136,8 +136,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="General_)"/>
-    <numFmt numFmtId="169" formatCode="0_)"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -382,26 +382,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -446,7 +446,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -455,25 +455,25 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -493,19 +493,19 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -517,6 +517,7 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -1017,7 +1018,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
@@ -2925,13 +2926,13 @@
       </c>
       <c r="B59" s="53"/>
       <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
+      <c r="H59" s="55"/>
       <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
+      <c r="J59" s="55"/>
       <c r="K59" s="37"/>
       <c r="L59" s="37"/>
     </row>
